--- a/biology/Botanique/Parc_King's_Navy_Yard/Parc_King's_Navy_Yard.xlsx
+++ b/biology/Botanique/Parc_King's_Navy_Yard/Parc_King's_Navy_Yard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_King%27s_Navy_Yard</t>
+          <t>Parc_King's_Navy_Yard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le parc King's Navy Yard (anglais : King's Navy Yard Park) est un jardin public et un ancien chantier naval de la Royal Navy du Canada située à Amherstburg en Ontario. Il a été utilisé entre 1796 et 1813. Il comprenait des blockhaus, des entrepôts, un magasin, une cour à bois et un quai. Il a été désigné lieu historique national du Canada en 1923 et désigné bien patrimonial par la ville d'Amherstburg en 1975.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_King%27s_Navy_Yard</t>
+          <t>Parc_King's_Navy_Yard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Vaisseaux construits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ottawa – goélette construite à Détroit vers 1778
 Chippewa – construit à Détroit vers 1790
